--- a/docs/log codes.xlsx
+++ b/docs/log codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\vbuwdoc\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A86225-1376-4220-8470-E5BCF5E0B743}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A22EA34-DB10-4950-A8F1-899581D342E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29610" yWindow="360" windowWidth="24510" windowHeight="15990" xr2:uid="{960F3D27-0E8F-4F5D-BE72-0F426CDA7117}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Log Codes</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>S460 + document id + gedownload</t>
+  </si>
+  <si>
+    <t>S627 + document id + kon niet gedownload worden</t>
+  </si>
+  <si>
+    <t>S460 + document id + kon niet gedownload worden</t>
   </si>
 </sst>
 </file>
@@ -150,22 +156,22 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0E80BF-7BC7-4D1A-9B86-8FCC52F24A02}">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,17 +499,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -514,51 +520,51 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <v>201</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>202</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -567,425 +573,438 @@
       <c r="B12">
         <v>301</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="1">
         <v>302</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="1">
         <v>401</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="1">
         <v>402</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="1">
         <v>501</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1">
+        <v>511</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B22" s="1">
         <v>502</v>
       </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B23" s="1">
         <v>503</v>
       </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1">
+        <v>513</v>
+      </c>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
